--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/AccountReceivable/Statement_of_Receivable-Agency.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/AccountReceivable/Statement_of_Receivable-Agency.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="0" windowWidth="14383" windowHeight="7723"/>
+    <workbookView xWindow="9330" yWindow="0" windowWidth="14385" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="AGENCY (2)" sheetId="1" r:id="rId1"/>
@@ -517,7 +517,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>TOTAL</t>
   </si>
@@ -661,6 +661,9 @@
   </si>
   <si>
     <t>{Debit_Ending}</t>
+  </si>
+  <si>
+    <t>{Credit_Ending}</t>
   </si>
 </sst>
 </file>
@@ -1043,6 +1046,36 @@
     <xf numFmtId="44" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="43" fontId="13" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1079,38 +1112,8 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="43" fontId="2" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1465,155 +1468,155 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
+      <selection pane="bottomRight" activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.3828125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.3046875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.3828125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.53515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="13.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14" style="1" customWidth="1"/>
-    <col min="19" max="19" width="13.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.15234375" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.15234375" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.84375" style="1"/>
+    <col min="19" max="19" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.140625" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:22">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
     </row>
     <row r="2" spans="2:22">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
     </row>
     <row r="3" spans="2:22" ht="15" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="J3" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="48" t="s">
+      <c r="K3" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="53" t="s">
+      <c r="M3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="53" t="s">
+      <c r="N3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="55" t="s">
+      <c r="O3" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="50" t="s">
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51" t="s">
+      <c r="T3" s="58"/>
+      <c r="U3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="51" t="s">
+      <c r="V3" s="37" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:22">
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="49" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
       <c r="O4" s="16" t="s">
         <v>6</v>
       </c>
@@ -1632,8 +1635,8 @@
       <c r="T4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
     </row>
     <row r="5" spans="2:22" s="12" customFormat="1">
       <c r="B5" s="13">
@@ -1717,7 +1720,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:22" s="17" customFormat="1" ht="12.9">
+    <row r="6" spans="2:22" s="17" customFormat="1" ht="12.75">
       <c r="B6" s="18" t="s">
         <v>27</v>
       </c>
@@ -1764,7 +1767,9 @@
       <c r="S6" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="T6" s="25"/>
+      <c r="T6" s="25" t="s">
+        <v>46</v>
+      </c>
       <c r="U6" s="21" t="s">
         <v>35</v>
       </c>
@@ -1772,7 +1777,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="2:22" s="34" customFormat="1" ht="12.9">
+    <row r="7" spans="2:22" s="34" customFormat="1" ht="12.75">
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
       <c r="D7" s="27"/>
@@ -1786,7 +1791,7 @@
       <c r="L7" s="28"/>
       <c r="M7" s="31"/>
       <c r="N7" s="31"/>
-      <c r="O7" s="58" t="s">
+      <c r="O7" s="36" t="s">
         <v>40</v>
       </c>
       <c r="P7" s="35"/>
@@ -1846,13 +1851,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:R3"/>
     <mergeCell ref="B1:U1"/>
     <mergeCell ref="B2:U2"/>
     <mergeCell ref="B3:B4"/>
@@ -1865,6 +1863,13 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:R3"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:G4">
     <cfRule type="duplicateValues" dxfId="5" priority="6" stopIfTrue="1"/>

--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/AccountReceivable/Statement_of_Receivable-Agency.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/AccountReceivable/Statement_of_Receivable-Agency.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9330" yWindow="0" windowWidth="14385" windowHeight="7725"/>
+    <workbookView xWindow="9330" yWindow="2250" windowWidth="14385" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="AGENCY (2)" sheetId="1" r:id="rId1"/>
@@ -517,7 +517,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>TOTAL</t>
   </si>
@@ -664,6 +664,18 @@
   </si>
   <si>
     <t>{Credit_Ending}</t>
+  </si>
+  <si>
+    <t>{JobNoGrp}</t>
+  </si>
+  <si>
+    <t>{MBLGrp}</t>
+  </si>
+  <si>
+    <t>{HBLGrp}</t>
+  </si>
+  <si>
+    <t>{CreditNoGrp}</t>
   </si>
 </sst>
 </file>
@@ -788,7 +800,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -798,12 +810,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,43 +995,50 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="13" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="13" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="13" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1037,82 +1050,75 @@
     <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="14" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1468,7 +1474,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Y4" sqref="Y4"/>
+      <selection pane="bottomRight" activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1479,7 +1485,7 @@
     <col min="4" max="4" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -1495,128 +1501,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
     </row>
     <row r="2" spans="2:22">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
     </row>
     <row r="3" spans="2:22" ht="15" customHeight="1">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="41" t="s">
+      <c r="M3" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="41" t="s">
+      <c r="N3" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="43" t="s">
+      <c r="O3" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="58" t="s">
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="58"/>
-      <c r="U3" s="37" t="s">
+      <c r="T3" s="51"/>
+      <c r="U3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="37" t="s">
+      <c r="V3" s="52" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:22">
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="40" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
       <c r="O4" s="16" t="s">
         <v>6</v>
       </c>
@@ -1635,8 +1641,8 @@
       <c r="T4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
     </row>
     <row r="5" spans="2:22" s="12" customFormat="1">
       <c r="B5" s="13">
@@ -1720,91 +1726,99 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:22" s="17" customFormat="1" ht="12.75">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="2:22" s="36" customFormat="1" ht="12.75">
+      <c r="B6" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="T6" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="U6" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="V6" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" s="25" customFormat="1" ht="12.75">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H7" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I7" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J7" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="T6" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="U6" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="V6" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" s="34" customFormat="1" ht="12.75">
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="36" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="32" t="s">
+      <c r="P7" s="27"/>
+      <c r="Q7" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="R7" s="32" t="s">
+      <c r="R7" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
     </row>
     <row r="8" spans="2:22" s="4" customFormat="1">
       <c r="B8" s="10"/>
@@ -1851,6 +1865,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:R3"/>
     <mergeCell ref="B1:U1"/>
     <mergeCell ref="B2:U2"/>
     <mergeCell ref="B3:B4"/>
@@ -1863,13 +1884,6 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:R3"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:G4">
     <cfRule type="duplicateValues" dxfId="5" priority="6" stopIfTrue="1"/>

--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/AccountReceivable/Statement_of_Receivable-Agency.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/AccountReceivable/Statement_of_Receivable-Agency.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9330" yWindow="2250" windowWidth="14385" windowHeight="7725"/>
+    <workbookView xWindow="9330" yWindow="2700" windowWidth="14385" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="AGENCY (2)" sheetId="1" r:id="rId1"/>
@@ -517,7 +517,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>TOTAL</t>
   </si>
@@ -676,6 +676,9 @@
   </si>
   <si>
     <t>{CreditNoGrp}</t>
+  </si>
+  <si>
+    <t>{NetOff}</t>
   </si>
 </sst>
 </file>
@@ -1055,6 +1058,33 @@
     </xf>
     <xf numFmtId="43" fontId="14" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1091,34 +1121,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="43" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1474,7 +1477,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="R14" sqref="R14"/>
+      <selection pane="bottomRight" activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1501,128 +1504,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
     </row>
     <row r="2" spans="2:22">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
     </row>
     <row r="3" spans="2:22" ht="15" customHeight="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="J3" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="L3" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="54" t="s">
+      <c r="M3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="54" t="s">
+      <c r="N3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="56" t="s">
+      <c r="O3" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="51" t="s">
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="51"/>
-      <c r="U3" s="52" t="s">
+      <c r="T3" s="58"/>
+      <c r="U3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="52" t="s">
+      <c r="V3" s="37" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:22">
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="50" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
       <c r="O4" s="16" t="s">
         <v>6</v>
       </c>
@@ -1641,8 +1644,8 @@
       <c r="T4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
     </row>
     <row r="5" spans="2:22" s="12" customFormat="1">
       <c r="B5" s="13">
@@ -1767,7 +1770,9 @@
         <v>44</v>
       </c>
       <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
+      <c r="P6" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="Q6" s="34"/>
       <c r="R6" s="34"/>
       <c r="S6" s="35" t="s">
@@ -1865,13 +1870,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:R3"/>
     <mergeCell ref="B1:U1"/>
     <mergeCell ref="B2:U2"/>
     <mergeCell ref="B3:B4"/>
@@ -1884,6 +1882,13 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:R3"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:G4">
     <cfRule type="duplicateValues" dxfId="5" priority="6" stopIfTrue="1"/>

--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/AccountReceivable/Statement_of_Receivable-Agency.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/AccountReceivable/Statement_of_Receivable-Agency.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9330" yWindow="6300" windowWidth="14385" windowHeight="7725"/>
+    <workbookView xWindow="9330" yWindow="7200" windowWidth="14385" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="AGENCY (2)" sheetId="1" r:id="rId1"/>
@@ -762,7 +762,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -841,17 +841,11 @@
     <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="10" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="10" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="10" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -860,6 +854,21 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1327,11 +1336,11 @@
   </sheetPr>
   <dimension ref="B1:AC9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="O6" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Y17" sqref="Y17"/>
+      <selection pane="bottomRight" activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1347,8 +1356,8 @@
     <col min="9" max="9" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.140625" style="2" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" style="29" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.5703125" style="29" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.42578125" style="1" customWidth="1"/>
@@ -1366,159 +1375,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" s="28" customFormat="1" ht="21">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
     </row>
     <row r="2" spans="2:29">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
     </row>
     <row r="3" spans="2:29" ht="15" customHeight="1">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="46" t="s">
+      <c r="K3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="46" t="s">
+      <c r="L3" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="48" t="s">
+      <c r="M3" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="51" t="s">
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="51"/>
-      <c r="S3" s="40" t="s">
+      <c r="R3" s="54"/>
+      <c r="S3" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="40" t="s">
+      <c r="T3" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="U3" s="40" t="s">
+      <c r="U3" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="V3" s="51" t="s">
+      <c r="V3" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="W3" s="51"/>
-      <c r="X3" s="40" t="s">
+      <c r="W3" s="54"/>
+      <c r="X3" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="Y3" s="40" t="s">
+      <c r="Y3" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="Z3" s="44" t="s">
+      <c r="Z3" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="44" t="s">
+      <c r="AA3" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="AB3" s="40" t="s">
+      <c r="AB3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="AC3" s="40" t="s">
+      <c r="AC3" s="43" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:29">
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="45" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="45" t="s">
+      <c r="J4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="10" t="s">
         <v>6</v>
       </c>
@@ -1537,21 +1546,21 @@
       <c r="R4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
       <c r="V4" s="13" t="s">
         <v>33</v>
       </c>
       <c r="W4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
     </row>
     <row r="5" spans="2:29" s="9" customFormat="1">
       <c r="B5" s="14"/>
@@ -1593,7 +1602,7 @@
       <c r="D6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="18" t="s">
         <v>38</v>
       </c>
       <c r="F6" s="16" t="s">
@@ -1611,109 +1620,109 @@
       <c r="J6" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="N6" s="16" t="s">
+      <c r="N6" s="38" t="s">
         <v>56</v>
       </c>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
-      <c r="Q6" s="32" t="s">
+      <c r="Q6" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="R6" s="32" t="s">
+      <c r="R6" s="41" t="s">
         <v>58</v>
       </c>
       <c r="S6" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="T6" s="20" t="s">
+      <c r="T6" s="18" t="s">
         <v>47</v>
       </c>
       <c r="U6" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="V6" s="32" t="s">
+      <c r="V6" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="W6" s="32" t="s">
+      <c r="W6" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="X6" s="16" t="s">
+      <c r="X6" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="Y6" s="16" t="s">
+      <c r="Y6" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="Z6" s="20" t="s">
+      <c r="Z6" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="AA6" s="20" t="s">
+      <c r="AA6" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="AB6" s="16" t="s">
+      <c r="AB6" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="AC6" s="16" t="s">
+      <c r="AC6" s="19" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="2:29">
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="33" t="s">
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="N7" s="33" t="s">
+      <c r="N7" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="O7" s="35" t="s">
+      <c r="O7" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="P7" s="33" t="s">
+      <c r="P7" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="39"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="37"/>
     </row>
     <row r="8" spans="2:29">
       <c r="B8" s="16"/>

--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/AccountReceivable/Statement_of_Receivable-Agency.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/AccountReceivable/Statement_of_Receivable-Agency.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9330" yWindow="7200" windowWidth="14385" windowHeight="7725"/>
+    <workbookView xWindow="9330" yWindow="7650" windowWidth="14385" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="AGENCY (2)" sheetId="1" r:id="rId1"/>
@@ -762,7 +762,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -838,9 +838,6 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -870,24 +867,54 @@
     <xf numFmtId="43" fontId="17" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="2" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="2" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="43" fontId="2" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -906,35 +933,11 @@
     <xf numFmtId="43" fontId="2" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1340,7 +1343,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomRight" activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1375,159 +1378,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" s="28" customFormat="1" ht="21">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
     </row>
     <row r="2" spans="2:29">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
     </row>
     <row r="3" spans="2:29" ht="15" customHeight="1">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="57" t="s">
+      <c r="H3" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="L3" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="51" t="s">
+      <c r="M3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="54" t="s">
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="54"/>
-      <c r="S3" s="43" t="s">
+      <c r="R3" s="63"/>
+      <c r="S3" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="43" t="s">
+      <c r="T3" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="U3" s="43" t="s">
+      <c r="U3" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="V3" s="54" t="s">
+      <c r="V3" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="W3" s="54"/>
-      <c r="X3" s="43" t="s">
+      <c r="W3" s="63"/>
+      <c r="X3" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="Y3" s="43" t="s">
+      <c r="Y3" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="Z3" s="47" t="s">
+      <c r="Z3" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="47" t="s">
+      <c r="AA3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="AB3" s="43" t="s">
+      <c r="AB3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="AC3" s="43" t="s">
+      <c r="AC3" s="48" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:29">
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="48" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
       <c r="M4" s="10" t="s">
         <v>6</v>
       </c>
@@ -1546,21 +1549,21 @@
       <c r="R4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
       <c r="V4" s="13" t="s">
         <v>33</v>
       </c>
       <c r="W4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="49"/>
     </row>
     <row r="5" spans="2:29" s="9" customFormat="1">
       <c r="B5" s="14"/>
@@ -1620,39 +1623,39 @@
       <c r="J6" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="38" t="s">
+      <c r="K6" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="L6" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="M6" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="N6" s="38" t="s">
+      <c r="N6" s="37" t="s">
         <v>56</v>
       </c>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
-      <c r="Q6" s="41" t="s">
+      <c r="Q6" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="R6" s="41" t="s">
+      <c r="R6" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="S6" s="16" t="s">
+      <c r="S6" s="64" t="s">
         <v>46</v>
       </c>
       <c r="T6" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="U6" s="31" t="s">
+      <c r="U6" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="V6" s="42" t="s">
+      <c r="V6" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="W6" s="42" t="s">
+      <c r="W6" s="41" t="s">
         <v>70</v>
       </c>
       <c r="X6" s="19" t="s">
@@ -1675,54 +1678,54 @@
       </c>
     </row>
     <row r="7" spans="2:29">
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="40" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="39" t="s">
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="N7" s="39" t="s">
+      <c r="N7" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="O7" s="40" t="s">
+      <c r="O7" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="P7" s="37" t="s">
+      <c r="P7" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="37"/>
-      <c r="AC7" s="37"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="36"/>
     </row>
     <row r="8" spans="2:29">
       <c r="B8" s="16"/>
@@ -1812,15 +1815,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AC3:AC4"/>
     <mergeCell ref="B1:AB1"/>
     <mergeCell ref="B2:AB2"/>
@@ -1837,6 +1831,15 @@
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="V3:W3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="H3">
     <cfRule type="duplicateValues" dxfId="10" priority="7" stopIfTrue="1"/>

--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/AccountReceivable/Statement_of_Receivable-Agency.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/AccountReceivable/Statement_of_Receivable-Agency.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code_Khoa\efms-dev\eFMS-WebApp\WebAPI\eFMS.API.SystemWeb\eFMS.API.ReportData\eFMS.API.ReportData\FormatExcel\TemplateExport\AccountReceivable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code_Khoa\efms-uat\eFMS-WebApp\WebAPI\eFMS.API.SystemWeb\eFMS.API.ReportData\eFMS.API.ReportData\FormatExcel\TemplateExport\AccountReceivable\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9330" yWindow="7650" windowWidth="14385" windowHeight="7725"/>
+    <workbookView xWindow="9330" yWindow="9000" windowWidth="14385" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="AGENCY (2)" sheetId="1" r:id="rId1"/>
@@ -362,12 +362,6 @@
     <t>{HBLNo}</t>
   </si>
   <si>
-    <t>{DebitAmount}</t>
-  </si>
-  <si>
-    <t>{CreditAmount}</t>
-  </si>
-  <si>
     <t>{CreditTerm}</t>
   </si>
   <si>
@@ -395,18 +389,6 @@
     <t>{VoucherNo}</t>
   </si>
   <si>
-    <t>{PaidAmount}</t>
-  </si>
-  <si>
-    <t>{PaidAmountOBH}</t>
-  </si>
-  <si>
-    <t>{RemainDbUsd}</t>
-  </si>
-  <si>
-    <t>{RemainOBHUsd}</t>
-  </si>
-  <si>
     <t>{InvoiceDateDt}</t>
   </si>
   <si>
@@ -431,16 +413,34 @@
     <t>{RefNo}</t>
   </si>
   <si>
-    <t>{PaidAmountUsdDt}</t>
-  </si>
-  <si>
-    <t>{PaidAmountOBHUsdDt}</t>
-  </si>
-  <si>
-    <t>{RemainDb}</t>
-  </si>
-  <si>
-    <t>{RemainOBH}</t>
+    <t>{DebitAmountUsd}</t>
+  </si>
+  <si>
+    <t>{CreditAmountUsd}</t>
+  </si>
+  <si>
+    <t>{Debit}</t>
+  </si>
+  <si>
+    <t>{Credit}</t>
+  </si>
+  <si>
+    <t>{DebitDt}</t>
+  </si>
+  <si>
+    <t>{CreditDt}</t>
+  </si>
+  <si>
+    <t>{RemainDebitUsd}</t>
+  </si>
+  <si>
+    <t>{RemainCreditUsd}</t>
+  </si>
+  <si>
+    <t>{RemainDebitVnd}</t>
+  </si>
+  <si>
+    <t>{RemainCreditVnd}</t>
   </si>
 </sst>
 </file>
@@ -867,6 +867,48 @@
     <xf numFmtId="43" fontId="17" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="5" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="5" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="5" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -879,18 +921,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="168" fontId="2" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -908,36 +938,6 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="5" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="5" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="5" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1340,10 +1340,10 @@
   <dimension ref="B1:AC9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="N24" sqref="N24"/>
+      <selection pane="bottomRight" activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1358,8 +1358,8 @@
     <col min="8" max="8" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" style="29" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.42578125" style="29" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.5703125" style="29" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" style="1" bestFit="1" customWidth="1"/>
@@ -1369,7 +1369,7 @@
     <col min="19" max="20" width="15" style="29" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15" style="30" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.5703125" style="29" customWidth="1"/>
     <col min="24" max="24" width="11.7109375" style="29" customWidth="1"/>
     <col min="25" max="25" width="12.140625" style="29" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="11.42578125" style="29" bestFit="1" customWidth="1"/>
@@ -1378,159 +1378,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" s="28" customFormat="1" ht="21">
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
     </row>
     <row r="2" spans="2:29">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
     </row>
     <row r="3" spans="2:29" ht="15" customHeight="1">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="I3" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="58" t="s">
+      <c r="K3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="58" t="s">
+      <c r="L3" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="60" t="s">
+      <c r="M3" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="63" t="s">
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="63"/>
-      <c r="S3" s="48" t="s">
+      <c r="R3" s="55"/>
+      <c r="S3" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="48" t="s">
+      <c r="T3" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="U3" s="48" t="s">
+      <c r="U3" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="V3" s="63" t="s">
+      <c r="V3" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="W3" s="63"/>
-      <c r="X3" s="48" t="s">
+      <c r="W3" s="55"/>
+      <c r="X3" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="Y3" s="48" t="s">
+      <c r="Y3" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="Z3" s="46" t="s">
+      <c r="Z3" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="46" t="s">
+      <c r="AA3" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="AB3" s="48" t="s">
+      <c r="AB3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="AC3" s="48" t="s">
+      <c r="AC3" s="44" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:29">
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="47" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="47" t="s">
+      <c r="J4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
       <c r="M4" s="10" t="s">
         <v>6</v>
       </c>
@@ -1549,21 +1549,21 @@
       <c r="R4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
       <c r="V4" s="13" t="s">
         <v>33</v>
       </c>
       <c r="W4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="49"/>
-      <c r="AC4" s="49"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
     </row>
     <row r="5" spans="2:29" s="9" customFormat="1">
       <c r="B5" s="14"/>
@@ -1624,33 +1624,33 @@
         <v>43</v>
       </c>
       <c r="K6" s="37" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="L6" s="37" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="M6" s="37" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N6" s="37" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
       <c r="Q6" s="40" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="R6" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="S6" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="S6" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="T6" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="U6" s="43" t="s">
         <v>46</v>
-      </c>
-      <c r="T6" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="U6" s="65" t="s">
-        <v>48</v>
       </c>
       <c r="V6" s="41" t="s">
         <v>69</v>
@@ -1659,22 +1659,22 @@
         <v>70</v>
       </c>
       <c r="X6" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y6" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z6" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA6" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="Y6" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z6" s="18" t="s">
+      <c r="AB6" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="AA6" s="18" t="s">
+      <c r="AC6" s="19" t="s">
         <v>51</v>
-      </c>
-      <c r="AB6" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC6" s="19" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="2:29">
@@ -1682,36 +1682,36 @@
       <c r="C7" s="31"/>
       <c r="D7" s="32"/>
       <c r="E7" s="39" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
       <c r="M7" s="38" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N7" s="38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O7" s="39" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="P7" s="36" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="Q7" s="34"/>
       <c r="R7" s="34"/>
@@ -1815,6 +1815,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AC3:AC4"/>
     <mergeCell ref="B1:AB1"/>
     <mergeCell ref="B2:AB2"/>
@@ -1831,15 +1840,6 @@
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="V3:W3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="H3">
     <cfRule type="duplicateValues" dxfId="10" priority="7" stopIfTrue="1"/>

--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/AccountReceivable/Statement_of_Receivable-Agency.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/AccountReceivable/Statement_of_Receivable-Agency.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code_Khoa\efms-uat\eFMS-WebApp\WebAPI\eFMS.API.SystemWeb\eFMS.API.ReportData\eFMS.API.ReportData\FormatExcel\TemplateExport\AccountReceivable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lynne.Loc.ITL\Desktop\eFMSSource\WebAPI\eFMS.API.SystemWeb\eFMS.API.ReportData\eFMS.API.ReportData\FormatExcel\TemplateExport\AccountReceivable\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9330" yWindow="9000" windowWidth="14385" windowHeight="7725"/>
+    <workbookView xWindow="9330" yWindow="0" windowWidth="11160" windowHeight="4065"/>
   </bookViews>
   <sheets>
-    <sheet name="AGENCY (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="AGENCY in payment history" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,6 +37,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Jenny Ngan:
 </t>
@@ -62,6 +63,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Jenny Ngan:
 </t>
@@ -109,6 +111,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Jenny Ngan:</t>
         </r>
@@ -117,13 +120,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 - số dư đầu tại mốc chọn thời gian </t>
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
+    <comment ref="M3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -131,6 +135,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Jenny Ngan:</t>
         </r>
@@ -139,9 +144,55 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 - số dư đầu tại mốc chọn thời gian</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jenny Ngan:
+- Không tô đậm 2 cột này</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jenny Ngan:
+- Không tô đậm 2 cột này</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jenny Ngan:
+- Không tô đậm 2 cột này</t>
         </r>
       </text>
     </comment>
@@ -155,6 +206,21 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Jenny Ngan:
+- không hiện số lẻ, để nguyên số</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve">Jenny Ngan:
 </t>
         </r>
@@ -169,9 +235,20 @@
 - Credit note thì ko cần thể hiện
 </t>
         </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- không để số lẻ, để nguyên số
+</t>
+        </r>
       </text>
     </comment>
-    <comment ref="O4" authorId="0" shapeId="0">
+    <comment ref="X3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -179,8 +256,35 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jenny Ngan:
+- Số Debit trừ số Credit</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Jenny Ngan:
+- Tiền VND không để số lẻ thập phân, không cần tô đậm
 </t>
         </r>
         <r>
@@ -190,7 +294,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>- short time từ gần nhất đến lâu nhất</t>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -202,6 +307,31 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Jenny Ngan:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>- short time từ gần nhất đến lâu nhất</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Jenny Ngan:</t>
         </r>
@@ -210,6 +340,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 - Số chứng từ ghi nhận trên Bravo
@@ -222,29 +353,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
   <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Credit [usd]</t>
-  </si>
-  <si>
-    <t>Debit [usd]</t>
-  </si>
-  <si>
     <t>Ref no.</t>
   </si>
   <si>
     <t>Paid date</t>
   </si>
   <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>Debit</t>
-  </si>
-  <si>
     <t>Job ID</t>
   </si>
   <si>
@@ -252,9 +371,6 @@
   </si>
   <si>
     <t>Sales owner</t>
-  </si>
-  <si>
-    <t>Ending amount</t>
   </si>
   <si>
     <t>Payment details</t>
@@ -299,9 +415,6 @@
 [đối tượng cha]</t>
   </si>
   <si>
-    <t>From ____ to ______</t>
-  </si>
-  <si>
     <t>STATEMENT OF RECEIVABLE - AGENCY</t>
   </si>
   <si>
@@ -320,21 +433,6 @@
     <t>Overdue days</t>
   </si>
   <si>
-    <t>Ending amount in VND</t>
-  </si>
-  <si>
-    <t>Invoice ITL no.</t>
-  </si>
-  <si>
-    <t>Voucher no.</t>
-  </si>
-  <si>
-    <t>Debit [vnd]</t>
-  </si>
-  <si>
-    <t>Credit [vnd]</t>
-  </si>
-  <si>
     <t>{AgentParentCode}</t>
   </si>
   <si>
@@ -386,9 +484,6 @@
     <t>{Creator}</t>
   </si>
   <si>
-    <t>{VoucherNo}</t>
-  </si>
-  <si>
     <t>{InvoiceDateDt}</t>
   </si>
   <si>
@@ -407,47 +502,173 @@
     <t>{HBLNoDt}</t>
   </si>
   <si>
-    <t>{PaidDate}</t>
-  </si>
-  <si>
-    <t>{RefNo}</t>
-  </si>
-  <si>
     <t>{DebitAmountUsd}</t>
   </si>
   <si>
     <t>{CreditAmountUsd}</t>
   </si>
   <si>
-    <t>{Debit}</t>
-  </si>
-  <si>
-    <t>{Credit}</t>
-  </si>
-  <si>
-    <t>{DebitDt}</t>
-  </si>
-  <si>
-    <t>{CreditDt}</t>
-  </si>
-  <si>
-    <t>{RemainDebitUsd}</t>
-  </si>
-  <si>
-    <t>{RemainCreditUsd}</t>
-  </si>
-  <si>
-    <t>{RemainDebitVnd}</t>
-  </si>
-  <si>
-    <t>{RemainCreditVnd}</t>
+    <t>Ending Debit
+amount [usd]</t>
+  </si>
+  <si>
+    <t>Ending Credit
+amount [usd]</t>
+  </si>
+  <si>
+    <t>Balance amount
+[usd]</t>
+  </si>
+  <si>
+    <t>Advance amount
+[usd]</t>
+  </si>
+  <si>
+    <t>Balance amount
+[vnd]</t>
+  </si>
+  <si>
+    <t>Advance amount
+[vnd]</t>
+  </si>
+  <si>
+    <t>Inv ITL/ Voucher no.</t>
+  </si>
+  <si>
+    <t>Account no.</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Paid amount</t>
+  </si>
+  <si>
+    <t>OBH amount
+[usd]</t>
+  </si>
+  <si>
+    <t>{OBHAmountUsd}</t>
+  </si>
+  <si>
+    <t>{PaidAmountDebit}</t>
+  </si>
+  <si>
+    <t>{PaidAmountDebitDt}</t>
+  </si>
+  <si>
+    <t>Paid amount OBH</t>
+  </si>
+  <si>
+    <t>{PaidAmountOBH}</t>
+  </si>
+  <si>
+    <t>{PaidAmountOBHDt}</t>
+  </si>
+  <si>
+    <t>{PaidDateDt}</t>
+  </si>
+  <si>
+    <t>{ReceiptNo}</t>
+  </si>
+  <si>
+    <t>Ending OBH
+amount [usd]</t>
+  </si>
+  <si>
+    <t>{RemainDebitAmount}</t>
+  </si>
+  <si>
+    <t>{RemainOBHAmount}</t>
+  </si>
+  <si>
+    <t>{AdvanceAmountVnd}</t>
+  </si>
+  <si>
+    <t>{BalanceAmountVnd}</t>
+  </si>
+  <si>
+    <t>{AgentParentCodeDt}</t>
+  </si>
+  <si>
+    <t>{AgentPartnerCodeDt}</t>
+  </si>
+  <si>
+    <t>{AgentPartnerNameDt}</t>
+  </si>
+  <si>
+    <t>{AccountNo}</t>
+  </si>
+  <si>
+    <t>{Branch}</t>
+  </si>
+  <si>
+    <t>{AgentParentCodeAdv}</t>
+  </si>
+  <si>
+    <t>{AgentPartnerCodeAdv}</t>
+  </si>
+  <si>
+    <t>{AgentPartnerNameAdv}</t>
+  </si>
+  <si>
+    <t>{TotalDebitAmountUsd}</t>
+  </si>
+  <si>
+    <t>{TotalOBHAmountUsd}</t>
+  </si>
+  <si>
+    <t>{TotalCreditAmountUsd}</t>
+  </si>
+  <si>
+    <t>{TotalPaidAmountDebit}</t>
+  </si>
+  <si>
+    <t>{TotalPaidAmountOBH}</t>
+  </si>
+  <si>
+    <t>{RemainCreditAmount}</t>
+  </si>
+  <si>
+    <t>{TotalRemainDebitAmount}</t>
+  </si>
+  <si>
+    <t>{TotalRemainOBHAmount}</t>
+  </si>
+  <si>
+    <t>{TotalRemainCreditAmount}</t>
+  </si>
+  <si>
+    <t>{TotalBalanceAmount}</t>
+  </si>
+  <si>
+    <t>{TotalAdvAmount}</t>
+  </si>
+  <si>
+    <t>{TotalBalanceAmountVnd}</t>
+  </si>
+  <si>
+    <t>{AdvanceAmountUsd}</t>
+  </si>
+  <si>
+    <t>{TotalAdvAmountVnd}</t>
+  </si>
+  <si>
+    <t>{BalanceAmountUsd}</t>
+  </si>
+  <si>
+    <t>ADVANCE AMOUNT</t>
+  </si>
+  <si>
+    <t>{RangeDate}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="7">
+  <numFmts count="8">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -456,7 +677,7 @@
     <numFmt numFmtId="168" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,14 +716,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="7" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -526,17 +739,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
     </font>
     <font>
       <sz val="11"/>
@@ -574,15 +776,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -597,12 +807,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -610,18 +814,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,6 +832,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,14 +953,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -785,40 +984,18 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="2" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -826,121 +1003,171 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="10" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="10" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="10" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="10" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="5" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="5" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="5" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="Comma" xfId="5" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="1"/>
     <cellStyle name="Comma 2 2" xfId="4"/>
     <cellStyle name="Comma 3" xfId="3"/>
@@ -1337,13 +1564,13 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:AC9"/>
+  <dimension ref="B1:AH9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Y12" sqref="Y12"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1353,414 +1580,550 @@
     <col min="3" max="3" width="14.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" style="29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" style="29" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" style="29" customWidth="1"/>
-    <col min="19" max="20" width="15" style="29" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15" style="30" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.5703125" style="29" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" style="29" customWidth="1"/>
-    <col min="25" max="25" width="12.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="11.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="12.140625" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="19.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" style="18" customWidth="1"/>
+    <col min="13" max="13" width="20" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" style="18" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" style="18" customWidth="1"/>
+    <col min="21" max="21" width="19.85546875" style="18" customWidth="1"/>
+    <col min="22" max="23" width="15" style="18" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.5703125" style="19" customWidth="1"/>
+    <col min="25" max="25" width="18.140625" style="18" customWidth="1"/>
+    <col min="26" max="26" width="19.42578125" style="18" customWidth="1"/>
+    <col min="27" max="27" width="18.140625" style="18" customWidth="1"/>
+    <col min="28" max="28" width="19.42578125" style="18" customWidth="1"/>
+    <col min="29" max="30" width="11.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="12.140625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="11.140625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="11.42578125" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" s="28" customFormat="1" ht="21">
-      <c r="B1" s="46" t="s">
+    <row r="1" spans="2:34" s="17" customFormat="1" ht="21">
+      <c r="B1" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
+    </row>
+    <row r="2" spans="2:34">
+      <c r="B2" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+    </row>
+    <row r="3" spans="2:34" ht="15" customHeight="1">
+      <c r="B3" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="32"/>
+      <c r="O3" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="T3" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="U3" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="W3" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="X3" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y3" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z3" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA3" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB3" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC3" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD3" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE3" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF3" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG3" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH3" s="59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:34" ht="15" customHeight="1">
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="74"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="72"/>
+      <c r="AF4" s="72"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="60"/>
+    </row>
+    <row r="5" spans="2:34" s="9" customFormat="1">
+      <c r="B5" s="31">
+        <v>1</v>
+      </c>
+      <c r="C5" s="31">
+        <v>2</v>
+      </c>
+      <c r="D5" s="31">
+        <v>3</v>
+      </c>
+      <c r="E5" s="31">
+        <v>4</v>
+      </c>
+      <c r="F5" s="31">
+        <v>5</v>
+      </c>
+      <c r="G5" s="31">
+        <v>6</v>
+      </c>
+      <c r="H5" s="31">
+        <v>7</v>
+      </c>
+      <c r="I5" s="31">
+        <v>8</v>
+      </c>
+      <c r="J5" s="31">
+        <v>9</v>
+      </c>
+      <c r="K5" s="31">
+        <v>10</v>
+      </c>
+      <c r="L5" s="31">
+        <v>11</v>
+      </c>
+      <c r="M5" s="31">
+        <v>12</v>
+      </c>
+      <c r="N5" s="31">
+        <v>13</v>
+      </c>
+      <c r="O5" s="31">
+        <v>14</v>
+      </c>
+      <c r="P5" s="31">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="31">
+        <v>16</v>
+      </c>
+      <c r="R5" s="31">
+        <v>17</v>
+      </c>
+      <c r="S5" s="31">
+        <v>18</v>
+      </c>
+      <c r="T5" s="31">
+        <v>19</v>
+      </c>
+      <c r="U5" s="31">
+        <v>20</v>
+      </c>
+      <c r="V5" s="31">
+        <v>21</v>
+      </c>
+      <c r="W5" s="31">
+        <v>22</v>
+      </c>
+      <c r="X5" s="31">
+        <v>23</v>
+      </c>
+      <c r="Y5" s="31">
         <v>24</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
+      <c r="Z5" s="31">
+        <v>25</v>
+      </c>
+      <c r="AA5" s="31">
+        <v>26</v>
+      </c>
+      <c r="AB5" s="31">
+        <v>27</v>
+      </c>
+      <c r="AC5" s="31">
+        <v>28</v>
+      </c>
+      <c r="AD5" s="31">
+        <v>29</v>
+      </c>
+      <c r="AE5" s="31">
+        <v>30</v>
+      </c>
+      <c r="AF5" s="31">
+        <v>31</v>
+      </c>
+      <c r="AG5" s="31">
+        <v>32</v>
+      </c>
+      <c r="AH5" s="31">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="2:29">
-      <c r="B2" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
+    <row r="6" spans="2:34">
+      <c r="B6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="S6" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="T6" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="U6" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="W6" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="X6" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC6" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD6" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH6" s="13" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="2:29" ht="15" customHeight="1">
-      <c r="B3" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="55"/>
-      <c r="S3" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="U3" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="V3" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="W3" s="55"/>
-      <c r="X3" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y3" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z3" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA3" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB3" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC3" s="44" t="s">
-        <v>8</v>
-      </c>
+    <row r="7" spans="2:34">
+      <c r="B7" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q7" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="24"/>
+      <c r="AG7" s="24"/>
+      <c r="AH7" s="24"/>
     </row>
-    <row r="4" spans="2:29">
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="W4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="49"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
+    <row r="8" spans="2:34">
+      <c r="B8" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="43"/>
+      <c r="AE8" s="43"/>
+      <c r="AF8" s="43"/>
+      <c r="AG8" s="43"/>
+      <c r="AH8" s="43"/>
     </row>
-    <row r="5" spans="2:29" s="9" customFormat="1">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-    </row>
-    <row r="6" spans="2:29">
-      <c r="B6" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="M6" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="N6" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="R6" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="S6" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="T6" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="U6" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="V6" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="W6" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="X6" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y6" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z6" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA6" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB6" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC6" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="2:29">
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="N7" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="O7" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="P7" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="36"/>
-      <c r="AC7" s="36"/>
-    </row>
-    <row r="8" spans="2:29">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-    </row>
-    <row r="9" spans="2:29" s="3" customFormat="1">
+    <row r="9" spans="2:34" s="3" customFormat="1">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="15" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="6"/>
@@ -1769,88 +2132,100 @@
       <c r="H9" s="8"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="24">
-        <f>SUBTOTAL(9,K6:K8)</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="24">
-        <f>SUBTOTAL(9,L6:L8)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="24">
-        <f>SUBTOTAL(9,M6:M8)</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="24">
-        <f>SUBTOTAL(9,N6:N8)</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="24">
-        <f>SUBTOTAL(9,Q6:Q8)</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="24">
-        <f>SUBTOTAL(9,R6:R8)</f>
-        <v>0</v>
-      </c>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="24">
-        <f>SUBTOTAL(9,V6:V8)</f>
-        <v>0</v>
-      </c>
-      <c r="W9" s="24">
-        <f>SUBTOTAL(9,W6:W8)</f>
-        <v>0</v>
-      </c>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
+      <c r="K9" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="S9" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="T9" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y9" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z9" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA9" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="32">
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="B1:AE1"/>
+    <mergeCell ref="B2:AE2"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="X3:X4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="B1:AB1"/>
-    <mergeCell ref="B2:AB2"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:R3"/>
     <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="V3:W3"/>
   </mergeCells>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="10" priority="7" stopIfTrue="1"/>
+  <conditionalFormatting sqref="F9:H9">
+    <cfRule type="duplicateValues" dxfId="10" priority="19" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="20" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="9" priority="8" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="9" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="7" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:H9">
-    <cfRule type="duplicateValues" dxfId="7" priority="10" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="11" stopIfTrue="1"/>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="duplicateValues" dxfId="7" priority="8" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="9" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F4">
     <cfRule type="duplicateValues" dxfId="5" priority="4" stopIfTrue="1"/>

--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/AccountReceivable/Statement_of_Receivable-Agency.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/AccountReceivable/Statement_of_Receivable-Agency.xlsx
@@ -23,335 +23,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Jenny Ngan</author>
-  </authors>
-  <commentList>
-    <comment ref="E3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Jenny Ngan:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Debit note: lấy theo ngày xuất Issue date trên eFMS
-- Credit note / OBH: lấy theo ngày nhập chứng từ trên Bravo
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Jenny Ngan:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>- Nếu là Debit note thì cột Credit no. lấy số hóa đơn của Agent xuất trả cho ITL [nếu có]</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Jenny Ngan:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>- Nếu là Credit note thì tại cột Debit no. lấy số hóa đơn của Agent xuất thu ITL [bắt buộc]</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jenny Ngan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-- số dư đầu tại mốc chọn thời gian </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jenny Ngan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-- số dư đầu tại mốc chọn thời gian</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jenny Ngan:
-- Không tô đậm 2 cột này</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jenny Ngan:
-- Không tô đậm 2 cột này</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jenny Ngan:
-- Không tô đậm 2 cột này</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jenny Ngan:
-- không hiện số lẻ, để nguyên số</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Jenny Ngan:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Debit note thì để ngày quá hạn
-- Credit note thì ko cần thể hiện
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- không để số lẻ, để nguyên số
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jenny Ngan:
-- Số Debit trừ số Credit</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Jenny Ngan:
-- Tiền VND không để số lẻ thập phân, không cần tô đậm
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Jenny Ngan:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>- short time từ gần nhất đến lâu nhất</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jenny Ngan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-- Số chứng từ ghi nhận trên Bravo
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
   <si>
@@ -677,7 +348,7 @@
     <numFmt numFmtId="168" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,19 +397,6 @@
     <font>
       <sz val="12"/>
       <name val="VNI-Times"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -987,13 +645,13 @@
     <xf numFmtId="43" fontId="2" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1003,62 +661,62 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="8" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="12" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="8" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1067,7 +725,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1076,14 +734,14 @@
     <xf numFmtId="43" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="41" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1096,6 +754,60 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="169" fontId="2" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1109,60 +821,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="4" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1560,7 +1218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -1580,8 +1238,8 @@
     <col min="3" max="3" width="14.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="18.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20" style="2" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.140625" style="2" customWidth="1"/>
     <col min="11" max="11" width="19.42578125" style="18" bestFit="1" customWidth="1"/>
@@ -1589,7 +1247,7 @@
     <col min="13" max="13" width="20" style="18" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20" style="18" customWidth="1"/>
     <col min="15" max="15" width="20.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" style="18" customWidth="1"/>
     <col min="17" max="17" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.85546875" style="1" customWidth="1"/>
     <col min="19" max="19" width="14" style="1" customWidth="1"/>
@@ -1600,7 +1258,7 @@
     <col min="25" max="25" width="18.140625" style="18" customWidth="1"/>
     <col min="26" max="26" width="19.42578125" style="18" customWidth="1"/>
     <col min="27" max="27" width="18.140625" style="18" customWidth="1"/>
-    <col min="28" max="28" width="19.42578125" style="18" customWidth="1"/>
+    <col min="28" max="28" width="20.42578125" style="18" customWidth="1"/>
     <col min="29" max="30" width="11.42578125" style="18" bestFit="1" customWidth="1"/>
     <col min="31" max="32" width="12.140625" style="1" customWidth="1"/>
     <col min="33" max="33" width="11.140625" style="1" customWidth="1"/>
@@ -1609,185 +1267,185 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:34" s="17" customFormat="1" ht="21">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
     </row>
     <row r="2" spans="2:34">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="70"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="G3" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="75" t="s">
+      <c r="H3" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="71" t="s">
+      <c r="I3" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="71" t="s">
+      <c r="J3" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="73" t="s">
+      <c r="K3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="57" t="s">
+      <c r="L3" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="73" t="s">
+      <c r="M3" s="60" t="s">
         <v>7</v>
       </c>
       <c r="N3" s="32"/>
-      <c r="O3" s="54" t="s">
+      <c r="O3" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="57" t="s">
+      <c r="P3" s="73"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="S3" s="57" t="s">
+      <c r="S3" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="T3" s="57" t="s">
+      <c r="T3" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="59" t="s">
+      <c r="U3" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="59" t="s">
+      <c r="V3" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="59" t="s">
+      <c r="W3" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="X3" s="59" t="s">
+      <c r="X3" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="Y3" s="59" t="s">
+      <c r="Y3" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="Z3" s="59" t="s">
+      <c r="Z3" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="AA3" s="59" t="s">
+      <c r="AA3" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="AB3" s="59" t="s">
+      <c r="AB3" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="AC3" s="59" t="s">
+      <c r="AC3" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="AD3" s="59" t="s">
+      <c r="AD3" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="AE3" s="71" t="s">
+      <c r="AE3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="AF3" s="71" t="s">
+      <c r="AF3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="59" t="s">
+      <c r="AG3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AH3" s="59" t="s">
+      <c r="AH3" s="54" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:34" ht="15" customHeight="1">
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="72" t="s">
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="72" t="s">
+      <c r="J4" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="74"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="61"/>
       <c r="N4" s="10" t="s">
         <v>58</v>
       </c>
@@ -1800,23 +1458,23 @@
       <c r="Q4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="60"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="72"/>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="60"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="55"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="55"/>
+      <c r="AH4" s="55"/>
     </row>
     <row r="5" spans="2:34" s="9" customFormat="1">
       <c r="B5" s="31">
@@ -2183,11 +1841,17 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="B1:AE1"/>
     <mergeCell ref="B2:AE2"/>
     <mergeCell ref="AA3:AA4"/>
@@ -2204,17 +1868,11 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="X3:X4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AF3:AF4"/>
   </mergeCells>
   <conditionalFormatting sqref="F9:H9">
     <cfRule type="duplicateValues" dxfId="10" priority="19" stopIfTrue="1"/>
@@ -2243,6 +1901,5 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/AccountReceivable/Statement_of_Receivable-Agency.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/AccountReceivable/Statement_of_Receivable-Agency.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code_Khoa\efms-uat\eFMS-WebApp\WebAPI\eFMS.API.SystemWeb\eFMS.API.ReportData\eFMS.API.ReportData\FormatExcel\TemplateExport\AccountReceivable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lynne.Loc.ITL\Desktop\eFMSSource\WebAPI\eFMS.API.SystemWeb\eFMS.API.ReportData\eFMS.API.ReportData\FormatExcel\TemplateExport\AccountReceivable\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9330" yWindow="9000" windowWidth="14385" windowHeight="7725"/>
+    <workbookView xWindow="9330" yWindow="0" windowWidth="11160" windowHeight="4065"/>
   </bookViews>
   <sheets>
-    <sheet name="AGENCY (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="AGENCY in payment history" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,228 +23,18 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Jenny Ngan</author>
-  </authors>
-  <commentList>
-    <comment ref="E3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">Jenny Ngan:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Debit note: lấy theo ngày xuất Issue date trên eFMS
-- Credit note / OBH: lấy theo ngày nhập chứng từ trên Bravo
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">Jenny Ngan:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>- Nếu là Debit note thì cột Credit no. lấy số hóa đơn của Agent xuất trả cho ITL [nếu có]</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Jenny Ngan:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>- Nếu là Credit note thì tại cột Debit no. lấy số hóa đơn của Agent xuất thu ITL [bắt buộc]</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>Jenny Ngan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-- số dư đầu tại mốc chọn thời gian </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>Jenny Ngan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-- số dư đầu tại mốc chọn thời gian</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Jenny Ngan:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Debit note thì để ngày quá hạn
-- Credit note thì ko cần thể hiện
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">Jenny Ngan:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>- short time từ gần nhất đến lâu nhất</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>Jenny Ngan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-- Số chứng từ ghi nhận trên Bravo
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
   <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Credit [usd]</t>
-  </si>
-  <si>
-    <t>Debit [usd]</t>
-  </si>
-  <si>
     <t>Ref no.</t>
   </si>
   <si>
     <t>Paid date</t>
   </si>
   <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>Debit</t>
-  </si>
-  <si>
     <t>Job ID</t>
   </si>
   <si>
@@ -252,9 +42,6 @@
   </si>
   <si>
     <t>Sales owner</t>
-  </si>
-  <si>
-    <t>Ending amount</t>
   </si>
   <si>
     <t>Payment details</t>
@@ -299,9 +86,6 @@
 [đối tượng cha]</t>
   </si>
   <si>
-    <t>From ____ to ______</t>
-  </si>
-  <si>
     <t>STATEMENT OF RECEIVABLE - AGENCY</t>
   </si>
   <si>
@@ -320,21 +104,6 @@
     <t>Overdue days</t>
   </si>
   <si>
-    <t>Ending amount in VND</t>
-  </si>
-  <si>
-    <t>Invoice ITL no.</t>
-  </si>
-  <si>
-    <t>Voucher no.</t>
-  </si>
-  <si>
-    <t>Debit [vnd]</t>
-  </si>
-  <si>
-    <t>Credit [vnd]</t>
-  </si>
-  <si>
     <t>{AgentParentCode}</t>
   </si>
   <si>
@@ -386,9 +155,6 @@
     <t>{Creator}</t>
   </si>
   <si>
-    <t>{VoucherNo}</t>
-  </si>
-  <si>
     <t>{InvoiceDateDt}</t>
   </si>
   <si>
@@ -407,47 +173,173 @@
     <t>{HBLNoDt}</t>
   </si>
   <si>
-    <t>{PaidDate}</t>
-  </si>
-  <si>
-    <t>{RefNo}</t>
-  </si>
-  <si>
     <t>{DebitAmountUsd}</t>
   </si>
   <si>
     <t>{CreditAmountUsd}</t>
   </si>
   <si>
-    <t>{Debit}</t>
-  </si>
-  <si>
-    <t>{Credit}</t>
-  </si>
-  <si>
-    <t>{DebitDt}</t>
-  </si>
-  <si>
-    <t>{CreditDt}</t>
-  </si>
-  <si>
-    <t>{RemainDebitUsd}</t>
-  </si>
-  <si>
-    <t>{RemainCreditUsd}</t>
-  </si>
-  <si>
-    <t>{RemainDebitVnd}</t>
-  </si>
-  <si>
-    <t>{RemainCreditVnd}</t>
+    <t>Ending Debit
+amount [usd]</t>
+  </si>
+  <si>
+    <t>Ending Credit
+amount [usd]</t>
+  </si>
+  <si>
+    <t>Balance amount
+[usd]</t>
+  </si>
+  <si>
+    <t>Advance amount
+[usd]</t>
+  </si>
+  <si>
+    <t>Balance amount
+[vnd]</t>
+  </si>
+  <si>
+    <t>Advance amount
+[vnd]</t>
+  </si>
+  <si>
+    <t>Inv ITL/ Voucher no.</t>
+  </si>
+  <si>
+    <t>Account no.</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Paid amount</t>
+  </si>
+  <si>
+    <t>OBH amount
+[usd]</t>
+  </si>
+  <si>
+    <t>{OBHAmountUsd}</t>
+  </si>
+  <si>
+    <t>{PaidAmountDebit}</t>
+  </si>
+  <si>
+    <t>{PaidAmountDebitDt}</t>
+  </si>
+  <si>
+    <t>Paid amount OBH</t>
+  </si>
+  <si>
+    <t>{PaidAmountOBH}</t>
+  </si>
+  <si>
+    <t>{PaidAmountOBHDt}</t>
+  </si>
+  <si>
+    <t>{PaidDateDt}</t>
+  </si>
+  <si>
+    <t>{ReceiptNo}</t>
+  </si>
+  <si>
+    <t>Ending OBH
+amount [usd]</t>
+  </si>
+  <si>
+    <t>{RemainDebitAmount}</t>
+  </si>
+  <si>
+    <t>{RemainOBHAmount}</t>
+  </si>
+  <si>
+    <t>{AdvanceAmountVnd}</t>
+  </si>
+  <si>
+    <t>{BalanceAmountVnd}</t>
+  </si>
+  <si>
+    <t>{AgentParentCodeDt}</t>
+  </si>
+  <si>
+    <t>{AgentPartnerCodeDt}</t>
+  </si>
+  <si>
+    <t>{AgentPartnerNameDt}</t>
+  </si>
+  <si>
+    <t>{AccountNo}</t>
+  </si>
+  <si>
+    <t>{Branch}</t>
+  </si>
+  <si>
+    <t>{AgentParentCodeAdv}</t>
+  </si>
+  <si>
+    <t>{AgentPartnerCodeAdv}</t>
+  </si>
+  <si>
+    <t>{AgentPartnerNameAdv}</t>
+  </si>
+  <si>
+    <t>{TotalDebitAmountUsd}</t>
+  </si>
+  <si>
+    <t>{TotalOBHAmountUsd}</t>
+  </si>
+  <si>
+    <t>{TotalCreditAmountUsd}</t>
+  </si>
+  <si>
+    <t>{TotalPaidAmountDebit}</t>
+  </si>
+  <si>
+    <t>{TotalPaidAmountOBH}</t>
+  </si>
+  <si>
+    <t>{RemainCreditAmount}</t>
+  </si>
+  <si>
+    <t>{TotalRemainDebitAmount}</t>
+  </si>
+  <si>
+    <t>{TotalRemainOBHAmount}</t>
+  </si>
+  <si>
+    <t>{TotalRemainCreditAmount}</t>
+  </si>
+  <si>
+    <t>{TotalBalanceAmount}</t>
+  </si>
+  <si>
+    <t>{TotalAdvAmount}</t>
+  </si>
+  <si>
+    <t>{TotalBalanceAmountVnd}</t>
+  </si>
+  <si>
+    <t>{AdvanceAmountUsd}</t>
+  </si>
+  <si>
+    <t>{TotalAdvAmountVnd}</t>
+  </si>
+  <si>
+    <t>{BalanceAmountUsd}</t>
+  </si>
+  <si>
+    <t>ADVANCE AMOUNT</t>
+  </si>
+  <si>
+    <t>{RangeDate}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="7">
+  <numFmts count="8">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -456,7 +348,7 @@
     <numFmt numFmtId="168" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,14 +387,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="7" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -513,30 +397,6 @@
     <font>
       <sz val="12"/>
       <name val="VNI-Times"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
     </font>
     <font>
       <sz val="11"/>
@@ -574,15 +434,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -597,12 +465,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -610,18 +472,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,6 +490,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,14 +611,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -785,40 +642,18 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="2" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -826,121 +661,171 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="10" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="10" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="10" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="5" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="5" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="5" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="Comma" xfId="5" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="1"/>
     <cellStyle name="Comma 2 2" xfId="4"/>
     <cellStyle name="Comma 3" xfId="3"/>
@@ -1333,17 +1218,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:AC9"/>
+  <dimension ref="B1:AH9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Y12" sqref="Y12"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1353,414 +1238,550 @@
     <col min="3" max="3" width="14.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20" style="2" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" style="29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" style="29" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" style="29" customWidth="1"/>
-    <col min="19" max="20" width="15" style="29" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15" style="30" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.5703125" style="29" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" style="29" customWidth="1"/>
-    <col min="25" max="25" width="12.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="11.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="12.140625" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="19.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" style="18" customWidth="1"/>
+    <col min="13" max="13" width="20" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" style="18" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" style="18" customWidth="1"/>
+    <col min="17" max="17" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" style="18" customWidth="1"/>
+    <col min="21" max="21" width="19.85546875" style="18" customWidth="1"/>
+    <col min="22" max="23" width="15" style="18" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.5703125" style="19" customWidth="1"/>
+    <col min="25" max="25" width="18.140625" style="18" customWidth="1"/>
+    <col min="26" max="26" width="19.42578125" style="18" customWidth="1"/>
+    <col min="27" max="27" width="18.140625" style="18" customWidth="1"/>
+    <col min="28" max="28" width="20.42578125" style="18" customWidth="1"/>
+    <col min="29" max="30" width="11.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="12.140625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="11.140625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="11.42578125" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" s="28" customFormat="1" ht="21">
-      <c r="B1" s="46" t="s">
+    <row r="1" spans="2:34" s="17" customFormat="1" ht="21">
+      <c r="B1" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+    </row>
+    <row r="2" spans="2:34">
+      <c r="B2" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+    </row>
+    <row r="3" spans="2:34" ht="15" customHeight="1">
+      <c r="B3" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="32"/>
+      <c r="O3" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="T3" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="U3" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="W3" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="X3" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y3" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z3" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA3" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB3" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC3" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD3" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE3" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF3" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG3" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH3" s="54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:34" ht="15" customHeight="1">
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="61"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="55"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="55"/>
+      <c r="AH4" s="55"/>
+    </row>
+    <row r="5" spans="2:34" s="9" customFormat="1">
+      <c r="B5" s="31">
+        <v>1</v>
+      </c>
+      <c r="C5" s="31">
+        <v>2</v>
+      </c>
+      <c r="D5" s="31">
+        <v>3</v>
+      </c>
+      <c r="E5" s="31">
+        <v>4</v>
+      </c>
+      <c r="F5" s="31">
+        <v>5</v>
+      </c>
+      <c r="G5" s="31">
+        <v>6</v>
+      </c>
+      <c r="H5" s="31">
+        <v>7</v>
+      </c>
+      <c r="I5" s="31">
+        <v>8</v>
+      </c>
+      <c r="J5" s="31">
+        <v>9</v>
+      </c>
+      <c r="K5" s="31">
+        <v>10</v>
+      </c>
+      <c r="L5" s="31">
+        <v>11</v>
+      </c>
+      <c r="M5" s="31">
+        <v>12</v>
+      </c>
+      <c r="N5" s="31">
+        <v>13</v>
+      </c>
+      <c r="O5" s="31">
+        <v>14</v>
+      </c>
+      <c r="P5" s="31">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="31">
+        <v>16</v>
+      </c>
+      <c r="R5" s="31">
+        <v>17</v>
+      </c>
+      <c r="S5" s="31">
+        <v>18</v>
+      </c>
+      <c r="T5" s="31">
+        <v>19</v>
+      </c>
+      <c r="U5" s="31">
+        <v>20</v>
+      </c>
+      <c r="V5" s="31">
+        <v>21</v>
+      </c>
+      <c r="W5" s="31">
+        <v>22</v>
+      </c>
+      <c r="X5" s="31">
+        <v>23</v>
+      </c>
+      <c r="Y5" s="31">
         <v>24</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
+      <c r="Z5" s="31">
+        <v>25</v>
+      </c>
+      <c r="AA5" s="31">
+        <v>26</v>
+      </c>
+      <c r="AB5" s="31">
+        <v>27</v>
+      </c>
+      <c r="AC5" s="31">
+        <v>28</v>
+      </c>
+      <c r="AD5" s="31">
+        <v>29</v>
+      </c>
+      <c r="AE5" s="31">
+        <v>30</v>
+      </c>
+      <c r="AF5" s="31">
+        <v>31</v>
+      </c>
+      <c r="AG5" s="31">
+        <v>32</v>
+      </c>
+      <c r="AH5" s="31">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="2:29">
-      <c r="B2" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
+    <row r="6" spans="2:34">
+      <c r="B6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="S6" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="T6" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="U6" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="W6" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="X6" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC6" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD6" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH6" s="13" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="2:29" ht="15" customHeight="1">
-      <c r="B3" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="55"/>
-      <c r="S3" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="U3" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="V3" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="W3" s="55"/>
-      <c r="X3" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y3" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z3" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA3" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB3" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC3" s="44" t="s">
-        <v>8</v>
-      </c>
+    <row r="7" spans="2:34">
+      <c r="B7" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q7" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="24"/>
+      <c r="AG7" s="24"/>
+      <c r="AH7" s="24"/>
     </row>
-    <row r="4" spans="2:29">
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="W4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="49"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
+    <row r="8" spans="2:34">
+      <c r="B8" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="43"/>
+      <c r="AE8" s="43"/>
+      <c r="AF8" s="43"/>
+      <c r="AG8" s="43"/>
+      <c r="AH8" s="43"/>
     </row>
-    <row r="5" spans="2:29" s="9" customFormat="1">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-    </row>
-    <row r="6" spans="2:29">
-      <c r="B6" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="M6" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="N6" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="R6" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="S6" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="T6" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="U6" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="V6" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="W6" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="X6" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y6" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z6" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA6" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB6" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC6" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="2:29">
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="N7" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="O7" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="P7" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="36"/>
-      <c r="AC7" s="36"/>
-    </row>
-    <row r="8" spans="2:29">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-    </row>
-    <row r="9" spans="2:29" s="3" customFormat="1">
+    <row r="9" spans="2:34" s="3" customFormat="1">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="15" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="6"/>
@@ -1769,88 +1790,100 @@
       <c r="H9" s="8"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="24">
-        <f>SUBTOTAL(9,K6:K8)</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="24">
-        <f>SUBTOTAL(9,L6:L8)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="24">
-        <f>SUBTOTAL(9,M6:M8)</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="24">
-        <f>SUBTOTAL(9,N6:N8)</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="24">
-        <f>SUBTOTAL(9,Q6:Q8)</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="24">
-        <f>SUBTOTAL(9,R6:R8)</f>
-        <v>0</v>
-      </c>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="24">
-        <f>SUBTOTAL(9,V6:V8)</f>
-        <v>0</v>
-      </c>
-      <c r="W9" s="24">
-        <f>SUBTOTAL(9,W6:W8)</f>
-        <v>0</v>
-      </c>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
+      <c r="K9" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="S9" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="T9" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y9" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z9" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA9" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
+  <mergeCells count="32">
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="T3:T4"/>
     <mergeCell ref="U3:U4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="S3:S4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B1:AE1"/>
+    <mergeCell ref="B2:AE2"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
     <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="B1:AB1"/>
-    <mergeCell ref="B2:AB2"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="X3:X4"/>
     <mergeCell ref="Y3:Y4"/>
     <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AF3:AF4"/>
   </mergeCells>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="10" priority="7" stopIfTrue="1"/>
+  <conditionalFormatting sqref="F9:H9">
+    <cfRule type="duplicateValues" dxfId="10" priority="19" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="20" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="9" priority="8" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="9" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="7" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:H9">
-    <cfRule type="duplicateValues" dxfId="7" priority="10" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="11" stopIfTrue="1"/>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="duplicateValues" dxfId="7" priority="8" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="9" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F4">
     <cfRule type="duplicateValues" dxfId="5" priority="4" stopIfTrue="1"/>
@@ -1868,6 +1901,5 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/AccountReceivable/Statement_of_Receivable-Agency.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/AccountReceivable/Statement_of_Receivable-Agency.xlsx
@@ -686,9 +686,6 @@
     <xf numFmtId="164" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -754,74 +751,77 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="169" fontId="2" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="2" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="2" fillId="4" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="2" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1252,7 +1252,7 @@
     <col min="18" max="18" width="13.85546875" style="1" customWidth="1"/>
     <col min="19" max="19" width="14" style="1" customWidth="1"/>
     <col min="20" max="20" width="16.7109375" style="18" customWidth="1"/>
-    <col min="21" max="21" width="19.85546875" style="18" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="18" customWidth="1"/>
     <col min="22" max="23" width="15" style="18" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="17.5703125" style="19" customWidth="1"/>
     <col min="25" max="25" width="18.140625" style="18" customWidth="1"/>
@@ -1267,313 +1267,313 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:34" s="17" customFormat="1" ht="21">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
     </row>
     <row r="2" spans="2:34">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="56" t="s">
+      <c r="I3" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="56" t="s">
+      <c r="J3" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="K3" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="75" t="s">
+      <c r="L3" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="60" t="s">
+      <c r="M3" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="32"/>
-      <c r="O3" s="72" t="s">
+      <c r="N3" s="31"/>
+      <c r="O3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="75" t="s">
+      <c r="P3" s="54"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="S3" s="75" t="s">
+      <c r="S3" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="T3" s="75" t="s">
+      <c r="T3" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="54" t="s">
+      <c r="U3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="54" t="s">
+      <c r="V3" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="54" t="s">
+      <c r="W3" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="X3" s="54" t="s">
+      <c r="X3" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="Y3" s="54" t="s">
+      <c r="Y3" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="Z3" s="54" t="s">
+      <c r="Z3" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="AA3" s="54" t="s">
+      <c r="AA3" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="AB3" s="54" t="s">
+      <c r="AB3" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="AC3" s="54" t="s">
+      <c r="AC3" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="AD3" s="54" t="s">
+      <c r="AD3" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="AE3" s="56" t="s">
+      <c r="AE3" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="AF3" s="56" t="s">
+      <c r="AF3" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="54" t="s">
+      <c r="AG3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="AH3" s="54" t="s">
+      <c r="AH3" s="58" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:34" ht="15" customHeight="1">
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="57" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="61"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="61"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="73"/>
       <c r="N4" s="10" t="s">
         <v>58</v>
       </c>
       <c r="O4" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="P4" s="30" t="s">
+      <c r="P4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="30" t="s">
+      <c r="Q4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="55"/>
-      <c r="AB4" s="55"/>
-      <c r="AC4" s="55"/>
-      <c r="AD4" s="55"/>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="57"/>
-      <c r="AG4" s="55"/>
-      <c r="AH4" s="55"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="71"/>
+      <c r="AF4" s="71"/>
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="59"/>
     </row>
     <row r="5" spans="2:34" s="9" customFormat="1">
-      <c r="B5" s="31">
+      <c r="B5" s="30">
         <v>1</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="30">
         <v>2</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="30">
         <v>3</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="30">
         <v>4</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="30">
         <v>5</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="30">
         <v>6</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="30">
         <v>7</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="30">
         <v>8</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="30">
         <v>9</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="30">
         <v>10</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="30">
         <v>11</v>
       </c>
-      <c r="M5" s="31">
+      <c r="M5" s="30">
         <v>12</v>
       </c>
-      <c r="N5" s="31">
+      <c r="N5" s="30">
         <v>13</v>
       </c>
-      <c r="O5" s="31">
+      <c r="O5" s="30">
         <v>14</v>
       </c>
-      <c r="P5" s="31">
+      <c r="P5" s="30">
         <v>15</v>
       </c>
-      <c r="Q5" s="31">
+      <c r="Q5" s="30">
         <v>16</v>
       </c>
-      <c r="R5" s="31">
+      <c r="R5" s="30">
         <v>17</v>
       </c>
-      <c r="S5" s="31">
+      <c r="S5" s="30">
         <v>18</v>
       </c>
-      <c r="T5" s="31">
+      <c r="T5" s="30">
         <v>19</v>
       </c>
-      <c r="U5" s="31">
+      <c r="U5" s="30">
         <v>20</v>
       </c>
-      <c r="V5" s="31">
+      <c r="V5" s="30">
         <v>21</v>
       </c>
-      <c r="W5" s="31">
+      <c r="W5" s="30">
         <v>22</v>
       </c>
-      <c r="X5" s="31">
+      <c r="X5" s="30">
         <v>23</v>
       </c>
-      <c r="Y5" s="31">
+      <c r="Y5" s="30">
         <v>24</v>
       </c>
-      <c r="Z5" s="31">
+      <c r="Z5" s="30">
         <v>25</v>
       </c>
-      <c r="AA5" s="31">
+      <c r="AA5" s="30">
         <v>26</v>
       </c>
-      <c r="AB5" s="31">
+      <c r="AB5" s="30">
         <v>27</v>
       </c>
-      <c r="AC5" s="31">
+      <c r="AC5" s="30">
         <v>28</v>
       </c>
-      <c r="AD5" s="31">
+      <c r="AD5" s="30">
         <v>29</v>
       </c>
-      <c r="AE5" s="31">
+      <c r="AE5" s="30">
         <v>30</v>
       </c>
-      <c r="AF5" s="31">
+      <c r="AF5" s="30">
         <v>31</v>
       </c>
-      <c r="AG5" s="31">
+      <c r="AG5" s="30">
         <v>32</v>
       </c>
-      <c r="AH5" s="31">
+      <c r="AH5" s="30">
         <v>33</v>
       </c>
     </row>
@@ -1622,29 +1622,29 @@
       </c>
       <c r="P6" s="25"/>
       <c r="Q6" s="14"/>
-      <c r="R6" s="44" t="s">
+      <c r="R6" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="S6" s="44" t="s">
+      <c r="S6" s="43" t="s">
         <v>70</v>
       </c>
       <c r="T6" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="U6" s="28" t="s">
+      <c r="U6" s="76" t="s">
         <v>33</v>
       </c>
       <c r="V6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="W6" s="29" t="s">
+      <c r="W6" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="X6" s="45" t="s">
+      <c r="X6" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="49" t="s">
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="48" t="s">
         <v>72</v>
       </c>
       <c r="AA6" s="13"/>
@@ -1677,7 +1677,7 @@
       <c r="C7" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="51" t="s">
         <v>75</v>
       </c>
       <c r="E7" s="27" t="s">
@@ -1707,7 +1707,7 @@
       <c r="O7" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="P7" s="46" t="s">
+      <c r="P7" s="45" t="s">
         <v>66</v>
       </c>
       <c r="Q7" s="27" t="s">
@@ -1732,51 +1732,51 @@
       <c r="AH7" s="24"/>
     </row>
     <row r="8" spans="2:34">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36" t="s">
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="40" t="s">
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="40" t="s">
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="43"/>
-      <c r="AE8" s="43"/>
-      <c r="AF8" s="43"/>
-      <c r="AG8" s="43"/>
-      <c r="AH8" s="43"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="42"/>
+      <c r="AG8" s="42"/>
+      <c r="AH8" s="42"/>
     </row>
     <row r="9" spans="2:34" s="3" customFormat="1">
       <c r="B9" s="8"/>
@@ -1807,10 +1807,10 @@
       </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="5"/>
-      <c r="R9" s="50" t="s">
+      <c r="R9" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="S9" s="50" t="s">
+      <c r="S9" s="49" t="s">
         <v>88</v>
       </c>
       <c r="T9" s="16" t="s">
@@ -1819,16 +1819,16 @@
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
       <c r="W9" s="16"/>
-      <c r="X9" s="47" t="s">
+      <c r="X9" s="46" t="s">
         <v>90</v>
       </c>
       <c r="Y9" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="Z9" s="51" t="s">
+      <c r="Z9" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="AA9" s="51" t="s">
+      <c r="AA9" s="50" t="s">
         <v>94</v>
       </c>
       <c r="AB9" s="16"/>
@@ -1841,17 +1841,11 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AF3:AF4"/>
     <mergeCell ref="B1:AE1"/>
     <mergeCell ref="B2:AE2"/>
     <mergeCell ref="AA3:AA4"/>
@@ -1868,11 +1862,17 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="S3:S4"/>
   </mergeCells>
   <conditionalFormatting sqref="F9:H9">
     <cfRule type="duplicateValues" dxfId="10" priority="19" stopIfTrue="1"/>
